--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643040.4311005973</v>
+        <v>-645868.5083385304</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.98548998062437</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>292.1047769691085</v>
       </c>
       <c r="H2" t="n">
-        <v>77.38501916833013</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>53.59564730961865</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.719592790138623</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>67.41850321461109</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.788000459169525</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>46.58646588932399</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8608514409108</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>123.8072422310243</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>24.94843002974995</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.946408598953</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>104.9183475339793</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>185.0663491738874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703253</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>26.07046444232026</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>156.5238857907026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.32378818575</v>
+        <v>1045.1555489966</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3612712453387</v>
+        <v>676.1930320561884</v>
       </c>
       <c r="D2" t="n">
-        <v>543.0955726385882</v>
+        <v>676.1930320561884</v>
       </c>
       <c r="E2" t="n">
-        <v>543.0955726385882</v>
+        <v>676.1930320561884</v>
       </c>
       <c r="F2" t="n">
-        <v>132.1096678489807</v>
+        <v>676.1930320561884</v>
       </c>
       <c r="G2" t="n">
-        <v>132.1096678489807</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2587.983384064252</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2369.348717036315</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2115.586931674407</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1784.524044330836</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1431.755389060722</v>
       </c>
       <c r="X2" t="n">
-        <v>1344.046505337896</v>
+        <v>1431.755389060722</v>
       </c>
       <c r="Y2" t="n">
-        <v>1344.046505337896</v>
+        <v>1431.755389060722</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.6464301928558</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="C4" t="n">
-        <v>58.71024726494892</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="D4" t="n">
-        <v>58.71024726494892</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="E4" t="n">
-        <v>58.71024726494892</v>
+        <v>2260.062387090397</v>
       </c>
       <c r="F4" t="n">
-        <v>58.71024726494892</v>
+        <v>2260.062387090397</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2091.06258682873</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2091.06258682873</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.2948950230955</v>
+        <v>2407.975480672791</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2694.332928938253</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2518.155441252423</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2518.155441252423</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2518.155441252423</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2518.155441252423</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W5" t="n">
-        <v>2165.386785982309</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X5" t="n">
-        <v>1791.921027721229</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1952.668433521682</v>
+        <v>1742.980733951697</v>
       </c>
       <c r="C8" t="n">
-        <v>1583.70591658127</v>
+        <v>1374.018217011286</v>
       </c>
       <c r="D8" t="n">
-        <v>1225.44021797452</v>
+        <v>1015.752518404535</v>
       </c>
       <c r="E8" t="n">
-        <v>1225.44021797452</v>
+        <v>629.9642658062908</v>
       </c>
       <c r="F8" t="n">
-        <v>814.4543131849123</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3665314213397</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>79.14341619384925</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>221.9370458384844</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>625.4041588585299</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1178.217417104729</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1809.935228088041</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2381.261620430141</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2551.4306457471</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285933</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285933</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285933</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>2129.580574015819</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.668433521682</v>
+        <v>2129.580574015819</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.668433521682</v>
+        <v>2129.580574015819</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.0306379830699</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>494.2807868718554</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460381</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460381</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460381</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="W10" t="n">
-        <v>764.7254868573889</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="X10" t="n">
-        <v>536.7359359593715</v>
+        <v>600.2589156940568</v>
       </c>
       <c r="Y10" t="n">
-        <v>315.9433568158414</v>
+        <v>494.2807868718554</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274258</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237298</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,7 +5513,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400699</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.917417812163</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.917417812163</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.917417812163</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>196.5408620426154</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>148.2422363886229</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8462,10 +8462,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>359.9458024792941</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>121.6793930516865</v>
       </c>
       <c r="H2" t="n">
-        <v>246.537753596027</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457059963</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>196.0358353086647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>67.07129414994063</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194358</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>38.5977558415268</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>226.0671788815077</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>60.88156453658567</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1175242.121270608</v>
+        <v>1175242.121270607</v>
       </c>
     </row>
     <row r="13">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254693</v>
+        <v>207271.1201254692</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135643.9091707903</v>
+        <v>135643.9091707902</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682754</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977624</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977628</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977627</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601199.7463232749</v>
+        <v>-601525.0914135567</v>
       </c>
       <c r="C6" t="n">
-        <v>-46468.96256715781</v>
+        <v>-46468.96256715787</v>
       </c>
       <c r="D6" t="n">
         <v>-202272.7686609527</v>
       </c>
       <c r="E6" t="n">
-        <v>-635708.7778643944</v>
+        <v>-635743.5157898301</v>
       </c>
       <c r="F6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="G6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909765</v>
       </c>
       <c r="H6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909763</v>
       </c>
       <c r="I6" t="n">
-        <v>135343.913516412</v>
+        <v>135309.1755909763</v>
       </c>
       <c r="J6" t="n">
-        <v>-41079.30567618104</v>
+        <v>-41114.04360161677</v>
       </c>
       <c r="K6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909763</v>
       </c>
       <c r="L6" t="n">
-        <v>135343.9135164119</v>
+        <v>135309.1755909762</v>
       </c>
       <c r="M6" t="n">
-        <v>-14156.20942609714</v>
+        <v>-14156.20942609687</v>
       </c>
       <c r="N6" t="n">
-        <v>129480.0192755934</v>
+        <v>129480.0192755933</v>
       </c>
       <c r="O6" t="n">
-        <v>129480.0192755933</v>
+        <v>129480.0192755932</v>
       </c>
       <c r="P6" t="n">
         <v>129480.0192755934</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309.7483516828562</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>120.8200654993529</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.5902094689123</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>67.54711857772713</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>51.6904021156422</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>281.1657925808109</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>3.448950818140105</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042818</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>283.0688035106871</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>93.54761086414035</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.8855715829843</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,7 +28029,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28062,10 +28062,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>113.6663058181154</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.6909737556767</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35182,10 +35182,10 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>556.2429872186702</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,10 +35881,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
